--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -10,23 +10,18 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="options">Лист1!$Y$2:$Y$4</definedName>
+    <definedName name="Kind">Лист1!$R$3:$R$5</definedName>
+    <definedName name="options">Лист1!$P$3:$P$5</definedName>
+    <definedName name="status">Лист1!$Q$3:$Q$4</definedName>
+    <definedName name="statuss">Лист1!$Q$3:$Q$4</definedName>
+    <definedName name="statusss">Лист1!$Q$3:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>Группа проверок/модуль</t>
-  </si>
-  <si>
-    <t>Проверка</t>
-  </si>
-  <si>
-    <t>Приоритет</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
   <si>
     <t>High</t>
   </si>
@@ -35,13 +30,320 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Тетсируемый модуль/функционал (Module under test/functionality)</t>
+  </si>
+  <si>
+    <t>Проверка (Check)</t>
+  </si>
+  <si>
+    <t>Приоритет (Priority)</t>
+  </si>
+  <si>
+    <t>Рузультат проверок (The result of the checks)</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Комментарии (Comments)</t>
+  </si>
+  <si>
+    <t>Авторизация (Authorization)</t>
+  </si>
+  <si>
+    <t>Авторизация с валидными данными (Authorization with valid data)</t>
+  </si>
+  <si>
+    <t>Авторизация с невалидными данными (Authorization with invalid data)</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>С1</t>
+  </si>
+  <si>
+    <t>Блок "Главная" (The "Home" block)</t>
+  </si>
+  <si>
+    <t>Проверить аличие раздела "Новости" (Check the availability of the "News" section)</t>
+  </si>
+  <si>
+    <t>Проверить аличие раздела "Заявки" (Check the availability of the "Applications" section)</t>
+  </si>
+  <si>
+    <t>Меню (Menu)</t>
+  </si>
+  <si>
+    <t>С2</t>
+  </si>
+  <si>
+    <t>С3</t>
+  </si>
+  <si>
+    <t>С4</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Переход в блок "Заявки" при помощи меню (Go to the "Applications" block using the menu)</t>
+  </si>
+  <si>
+    <t>Переход в блок "Новости" при помощи меню (Go to the "News" block using the menu)</t>
+  </si>
+  <si>
+    <t>Переход в блок "О приложении" при помощи меню (Go to the "About the application" section using the menu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Блок "Заявки"/Общее (The "Applications" block/General)</t>
+  </si>
+  <si>
+    <t>Проверить наличие элемента "фильтрация" (Check for the "filtering" element)</t>
+  </si>
+  <si>
+    <t>Проверить наличие элемента "Создание" (Check for the "Creation" element )</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Блок "Заявки"/Создание заявки (The "Applications" block/Creating an application)</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Создание заявки c вводом валидных данных во все поля (Creating an application with the input of valid data in all fields)</t>
+  </si>
+  <si>
+    <r>
+      <t>Авторизация с пустыми полями (Authorization with empty fields</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>Ввод 49 символов в поле "Тема" при создании заявки (Entering 49 characters in the "Subject" field when creating an application)</t>
+  </si>
+  <si>
+    <t>Ввод 50 символов в поле "Тема" при создании заявки (Entering 50 characters in the "Subject" field when creating an application)</t>
+  </si>
+  <si>
+    <t>Ввод 51 символа в поле "Тема" при создании заявки (Entering 51 characters in the "Subject" field when creating an application)</t>
+  </si>
+  <si>
+    <t>Пустой ввод в поле "Тема" при создании заявки (Empty input in the "Subject" field when creating an application)</t>
+  </si>
+  <si>
+    <t>Положительный или отрицательный(Positive or Negative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive </t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Пустой ввод в поле "Исполнитель" при создании заявки (Empty input in the "Contractor" field when creating an application)</t>
+  </si>
+  <si>
+    <t>Ввод ФИО из списка в поле "Исполнитель" при создании заявки (Entering the full name from the list in the "Performer" field when creating an application)</t>
+  </si>
+  <si>
+    <t>Пустой ввод в поле "Описание" при создании заявки (Empty input in the "Description" field when creating an application)</t>
+  </si>
+  <si>
+    <t>Отмена выбора даты при создании заявки (Canceling the date selection when creating an application)</t>
+  </si>
+  <si>
+    <t>Выбор часов и минут при помощи ввода при создании заявки (Selecting hours and minutes by entering when creating an application)</t>
+  </si>
+  <si>
+    <t>Ввод &gt; 24 часов в поле часы при создании заявки (Enter &gt; 24 hours in the hours field when creating the application)</t>
+  </si>
+  <si>
+    <t>Ввод &gt;60 в поле минуты при создании заявки (Enter &gt;60 in the minutes field when creating the request)</t>
+  </si>
+  <si>
+    <t>Отмена выбора времени в разделе циферблат при создании заявки (Canceling the time selection in the dial section when creating an application)</t>
+  </si>
+  <si>
+    <t>Редактирование заявки со статусом открыта с вводом валидных данных во все поля (Editing an application with the open status with the input of valid data in all fields)</t>
+  </si>
+  <si>
+    <t>Блок "Новости"/Общее (The "News" block/General)</t>
+  </si>
+  <si>
+    <t>Наличие всех новостей в блоке "Новости" (Availability of all news in the "News" block)</t>
+  </si>
+  <si>
+    <t>Удаление новости (Deleting news)</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>Блок "Новости"/Создание новости (The "News" block/Creating news)</t>
+  </si>
+  <si>
+    <t>Создание новости при заполнении всех полей валидными данными (Creating news when filling in all fields with valid data)</t>
+  </si>
+  <si>
+    <t>Отмена создания новости (Canceling news creation)</t>
+  </si>
+  <si>
+    <t>Выбор категории "Объявление" из списка с автозаполнением заголовка при создании новости (Selecting the "Ad" category from the list with autofill of the title when creating a news)</t>
+  </si>
+  <si>
+    <t>Не выбрана категория при создании новости (The category was not selected when creating the news)</t>
+  </si>
+  <si>
+    <t>Пустой ввод в поле "Описание" при создании новости (Empty input in the "Description" field when creating the news)</t>
+  </si>
+  <si>
+    <t>Отмена выбора даты при создании новости (Canceling the date selection when creating a news item)</t>
+  </si>
+  <si>
+    <t>Выбор часов и минут при помощи ввода при создании новости (Selecting hours and minutes by entering when creating a news item)</t>
+  </si>
+  <si>
+    <t>Ввод &gt; 24 часов в поле часы при создании новости (Enter &gt; 24 hours in the hours field when creating the news)</t>
+  </si>
+  <si>
+    <t>Ввод &gt;60 в поле минуты при создании новости (Enter &gt;60 in the minutes field when creating the news)</t>
+  </si>
+  <si>
+    <t>Отмена выбора времени в разделе циферблат при создании новости (Canceling the time selection in the dial section when creating news)</t>
+  </si>
+  <si>
+    <t>Редактирование новости при заполнении всех полей валидными данными (News editing when filling in all fields with valid data (Cyrillic characters, current date, current time in dial format))</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,14 +352,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,8 +433,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -92,74 +473,436 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFD4141"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFD4141"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -458,57 +1201,1133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="80.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="38.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="123.5703125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="14" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="64.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="P3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="23"/>
+      <c r="P4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="Q4" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="24"/>
+      <c r="P5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Y2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Y3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Y4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="49"/>
+      <c r="C26" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="49"/>
+      <c r="C29" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="C32" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="49"/>
+      <c r="C35" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="49"/>
+      <c r="C36" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="49"/>
+      <c r="C37" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="49"/>
+      <c r="C39" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="49"/>
+      <c r="C40" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="49"/>
+      <c r="C41" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="49"/>
+      <c r="C42" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="50"/>
+      <c r="C44" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="39"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="25"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="21"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="21"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="21"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="21"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="21"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="21"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="21"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="21"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="21"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="21"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="21"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="21"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="21"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="21"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="21"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="21"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="21"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="21"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="21"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="21"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="21"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="21"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="21"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="21"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="21"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="21"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="21"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="21"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="21"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="21"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="21"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="21"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="21"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="21"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="21"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="21"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="21"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="21"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="21"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="21"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="21"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="21"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="21"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="21"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="21"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="21"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="21"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="21"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="21"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="21"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="21"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="21"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="21"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="21"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="21"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="21"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="21"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="21"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="21"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="21"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="21"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="21"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="21"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="21"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="21"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="21"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="21"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="21"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="21"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C24">
+  <mergeCells count="7">
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B30"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F2:F123">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F115">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F121">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F140">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E123">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Negative">
+      <formula>NOT(ISERROR(SEARCH("Negative",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E124">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Positive"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E121">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Positive ">
+      <formula>NOT(ISERROR(SEARCH("Positive ",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E48:E115 D2:D115">
       <formula1>options</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F117">
+      <formula1>statusss</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E47">
+      <formula1>Kind</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
